--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1068736.102809379</v>
+        <v>1105828.661673613</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13283008.53108102</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2245491.49474429</v>
+        <v>698313.6830760725</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7380360.9321971</v>
+        <v>7928221.922966264</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.5897285701996</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>14.94721823158723</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.6893987380303</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -823,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>140.788100213896</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>70.36806076804486</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>298.3967634068916</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429392</v>
+        <v>51.58543740429438</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>415.4794233109046</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>146.1567412306582</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1376,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>29.89949249262355</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>98.47192684510185</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,16 +1618,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>110.7442840088821</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>319.7730921335589</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>84.45281474456189</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134946</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10.02877608965472</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2245,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>104.9037564455526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>164.7047943182449</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.9519429602581</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2858,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.8510591046953</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>126.3373110587204</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>104.9037564455521</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>123.9086344760398</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.7512152514375</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>119.9669324528405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087074</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>311.0876633699187</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>171.9522685391459</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.14179333952212</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>292.3236405495149</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>2.223773326656337</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399285</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>427.7981182481856</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C2" t="n">
-        <v>404.9377923018898</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D2" t="n">
-        <v>385.6855755272941</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>1763.054543461766</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="W2" t="n">
-        <v>1366.663193762113</v>
+        <v>2209.81305222845</v>
       </c>
       <c r="X2" t="n">
-        <v>954.9431949298605</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.6059248847508</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>119.1699405917395</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="L3" t="n">
-        <v>119.1699405917395</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="M3" t="n">
-        <v>119.1699405917395</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>793.628105764983</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>621.655542643899</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>458.3387697706697</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>458.3387697706697</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>286.4769955452301</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U4" t="n">
-        <v>2054.776204981511</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V4" t="n">
-        <v>1773.06473758954</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="W4" t="n">
-        <v>1498.212333762053</v>
+        <v>1452.700739341502</v>
       </c>
       <c r="X4" t="n">
-        <v>1255.648437207858</v>
+        <v>1210.136842787307</v>
       </c>
       <c r="Y4" t="n">
-        <v>1255.648437207858</v>
+        <v>983.7940744770488</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>115.8757326800462</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>44.49822504924753</v>
+        <v>667.494702989317</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>667.494702989317</v>
       </c>
       <c r="N5" t="n">
-        <v>1145.829295018124</v>
+        <v>667.494702989317</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>585.971841274985</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>584.6749752702793</v>
       </c>
     </row>
     <row r="6">
@@ -4632,34 +4634,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M6" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4729,7 +4731,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4762,13 +4764,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1357.561835800651</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>930.6611058139511</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>507.3684849989513</v>
+        <v>87.81719700132892</v>
       </c>
       <c r="E8" t="n">
-        <v>81.39154514680884</v>
+        <v>65.88066118959053</v>
       </c>
       <c r="F8" t="n">
-        <v>60.30776737661314</v>
+        <v>44.79688341939483</v>
       </c>
       <c r="G8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>422.6125678233614</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>422.6125678233614</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L8" t="n">
-        <v>422.6125678233614</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M8" t="n">
-        <v>1165.225291778376</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1907.83801573339</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>2650.450739688405</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P8" t="n">
-        <v>2882.899115441388</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2882.899115441388</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>3000.455450323291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>3000.455450323291</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>3000.455450323291</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U8" t="n">
-        <v>2742.100540919703</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V8" t="n">
-        <v>2742.100540919703</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W8" t="n">
-        <v>2594.467468969543</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.747470137291</v>
+        <v>954.9431949298601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1777.410200092181</v>
+        <v>549.6059248847504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>627.1326000379211</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>509.6266965554258</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>405.7867380707108</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>301.084804343648</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>207.4389740265522</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>113.3852022441562</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>67.45575196837767</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>339.1532412479688</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>929.6381678163084</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>929.6381678163084</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="M9" t="n">
-        <v>929.6381678163084</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N9" t="n">
-        <v>1322.531952639493</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O9" t="n">
-        <v>1322.531952639493</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1322.531952639493</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1786.677429502272</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1868.696739586976</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1787.37249214823</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1645.492556445908</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1460.724360365545</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1255.751221504811</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1059.229844338028</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>895.7524981046914</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.0596094579838</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1143.190231530703</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>971.2176684096187</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>807.9008955363894</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E10" t="n">
-        <v>641.6926896892429</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F10" t="n">
-        <v>469.8309154638034</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>303.5739457580355</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>159.7776772661899</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>60.00910900646583</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>117.5004372306238</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>344.028038436461</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>698.7173597308818</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1089.903154701133</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1467.394665577168</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1822.822794256932</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2113.422006178832</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2240.422136419594</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2240.422136419594</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2240.422136419594</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2240.422136419594</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2240.422136419594</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>2077.115268934708</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1802.262865107221</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1559.698968553026</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1333.356200242768</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>910.2024598081655</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C11" t="n">
-        <v>483.3017298214656</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D11" t="n">
-        <v>60.00910900646583</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>60.00910900646583</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>60.00910900646583</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>60.00910900646583</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>422.6125678233614</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>772.6172784582474</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1515.230002413262</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.230002413262</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N11" t="n">
-        <v>2257.842726368277</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O11" t="n">
-        <v>3000.455450323291</v>
+        <v>3855.383802554838</v>
       </c>
       <c r="P11" t="n">
-        <v>3000.455450323291</v>
+        <v>4563.663081712765</v>
       </c>
       <c r="Q11" t="n">
-        <v>3000.455450323291</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R11" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S11" t="n">
-        <v>3000.455450323291</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T11" t="n">
-        <v>3000.455450323291</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U11" t="n">
-        <v>2900.988857550461</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V11" t="n">
-        <v>2543.499442676711</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W11" t="n">
-        <v>2147.108092977058</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X11" t="n">
-        <v>1735.388094144805</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y11" t="n">
-        <v>1330.050824099696</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>331.7065982860569</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>331.7065982860569</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>331.7065982860569</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>331.7065982860569</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1074.319322241071</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1404.551262724196</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1404.551262724196</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1143.190231530703</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>971.2176684096187</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>807.9008955363894</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>641.6926896892429</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>469.8309154638034</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>303.5739457580355</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>159.7776772661899</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>698.7173597308818</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U13" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V13" t="n">
-        <v>2077.115268934708</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>1802.262865107221</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>1559.698968553026</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1333.356200242768</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1336.179399660308</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>909.278669673608</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>485.9860488586083</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>60.00910900646583</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>60.00910900646583</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>60.00910900646583</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>60.00910900646583</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>802.6218329614803</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>802.6218329614803</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>1545.234556916495</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>2287.84728087151</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>2996.126560029437</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q14" t="n">
-        <v>2996.126560029437</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R14" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S14" t="n">
-        <v>2896.088156196432</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T14" t="n">
-        <v>2896.088156196432</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>2896.088156196432</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2896.088156196432</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>2573.0850328292</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.365033996948</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1756.027763951838</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>627.1326000379211</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>509.6266965554258</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>405.7867380707108</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>301.084804343648</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>207.4389740265522</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>113.3852022441562</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>650.4940355748054</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>661.9385387691817</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>661.9385387691817</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N15" t="n">
-        <v>661.9385387691817</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O15" t="n">
-        <v>1404.551262724196</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1404.551262724196</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1868.696739586976</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1787.37249214823</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1645.492556445908</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1460.724360365545</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1255.751221504811</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1059.229844338028</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>895.7524981046914</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>756.0596094579838</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1128.727536750334</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>956.7549736292501</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>793.4382007560208</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>627.2299949088743</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>455.3682206834347</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>289.1112509776669</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>145.3149824858213</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>698.7173597308818</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2240.422136419594</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2070.287088938729</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T16" t="n">
-        <v>1826.947741164629</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="U16" t="n">
-        <v>1826.947741164629</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="V16" t="n">
-        <v>1545.236273772658</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W16" t="n">
-        <v>1545.236273772658</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1545.236273772658</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.8935054624</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
         <v>1021.509065974867</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.8276921262043</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.99366083827</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3375.975369221655</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>3204.002806100571</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>3040.686033227342</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4871.796322517327</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U22" t="n">
-        <v>4591.611874017632</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V22" t="n">
-        <v>4309.90040662566</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W22" t="n">
-        <v>4035.048002798173</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X22" t="n">
-        <v>3792.484106243979</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y22" t="n">
-        <v>3566.14133793372</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4208.069734114601</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4208.069734114601</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4208.069734114601</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6306,16 +6308,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3507.861222208865</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>3507.861222208865</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>3344.544449335636</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>3344.544449335636</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4480.933830450647</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V28" t="n">
-        <v>4199.222363058676</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W28" t="n">
-        <v>3924.369959231189</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X28" t="n">
-        <v>3924.369959231189</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>3698.027190920931</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1852.677416841655</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2856.963518260713</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3833.214576747414</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6503,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6540,13 +6542,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
         <v>821.6753975134684</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3707.850527204922</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C31" t="n">
-        <v>3535.877964083838</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D31" t="n">
-        <v>3372.561191210609</v>
+        <v>398.4320724669367</v>
       </c>
       <c r="E31" t="n">
-        <v>3206.352985363462</v>
+        <v>232.2238666197902</v>
       </c>
       <c r="F31" t="n">
-        <v>3034.491211138023</v>
+        <v>232.2238666197902</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138023</v>
+        <v>232.2238666197902</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>4697.144263690641</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>4415.43279629867</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>4140.580392471183</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>3898.016495916987</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>3898.016495916987</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>543.5554397491844</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>371.5828766281004</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D34" t="n">
-        <v>208.2661037548711</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E34" t="n">
-        <v>208.2661037548711</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F34" t="n">
-        <v>208.2661037548711</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>292.0244587153436</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>2157.555503974472</v>
       </c>
       <c r="V37" t="n">
-        <v>2065.542080025265</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W37" t="n">
-        <v>1790.689676197778</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X37" t="n">
-        <v>1548.125779643583</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>292.0244587153436</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>827.5769510932375</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>706.3982314439037</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439037</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967572</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713177</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>1260.306816359498</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>1017.742919805303</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>1017.742919805303</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1613.317671605725</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C41" t="n">
-        <v>1613.317671605725</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D41" t="n">
-        <v>1613.317671605725</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1187.340731753582</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>762.2165499429824</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>357.877487532431</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>260.4133248487639</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>975.9216328242629</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L41" t="n">
-        <v>975.9216328242629</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>975.9216328242629</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>975.9216328242629</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>1718.534356779277</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P41" t="n">
-        <v>2426.813635937205</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="Q41" t="n">
-        <v>2882.899115441388</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R41" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S41" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T41" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U41" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V41" t="n">
-        <v>2826.76629018274</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W41" t="n">
-        <v>2430.374940483087</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X41" t="n">
-        <v>2018.654941650834</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1613.317671605725</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1758.891310774237</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>1641.385407291742</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>1537.545448807027</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>1432.843515079964</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>1339.197684762868</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>1245.143912980472</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>1463.465309022373</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>1515.230002413262</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>1515.230002413262</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>2257.842726368277</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>3000.455450323291</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O42" t="n">
-        <v>3000.455450323291</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>2919.131202884546</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>2777.251267182224</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>2592.483071101861</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>2387.509932241127</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>2190.988555074344</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>2027.511208841007</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>1887.8183201943</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>641.6926896892429</v>
+        <v>3047.513282086043</v>
       </c>
       <c r="C43" t="n">
-        <v>641.6926896892429</v>
+        <v>2875.540718964959</v>
       </c>
       <c r="D43" t="n">
-        <v>641.6926896892429</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="E43" t="n">
-        <v>641.6926896892429</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="F43" t="n">
-        <v>469.8309154638034</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="G43" t="n">
-        <v>303.5739457580355</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="H43" t="n">
-        <v>159.7776772661899</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="I43" t="n">
-        <v>60.00910900646583</v>
+        <v>2823.434216536378</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5004372306238</v>
+        <v>2880.925544760536</v>
       </c>
       <c r="K43" t="n">
-        <v>344.028038436461</v>
+        <v>3107.453145966373</v>
       </c>
       <c r="L43" t="n">
-        <v>698.7173597308818</v>
+        <v>3462.142467260794</v>
       </c>
       <c r="M43" t="n">
-        <v>1089.903154701133</v>
+        <v>3853.328262231045</v>
       </c>
       <c r="N43" t="n">
-        <v>1467.394665577168</v>
+        <v>4230.81977310708</v>
       </c>
       <c r="O43" t="n">
-        <v>1822.822794256932</v>
+        <v>4586.247901786844</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.422006178832</v>
+        <v>4876.847113708744</v>
       </c>
       <c r="Q43" t="n">
-        <v>2240.422136419594</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="R43" t="n">
-        <v>2193.383523106767</v>
+        <v>4956.808630636679</v>
       </c>
       <c r="S43" t="n">
-        <v>2023.248475625902</v>
+        <v>4786.673583155814</v>
       </c>
       <c r="T43" t="n">
-        <v>2023.248475625902</v>
+        <v>4543.334235381714</v>
       </c>
       <c r="U43" t="n">
-        <v>1743.064027126207</v>
+        <v>4263.149786882019</v>
       </c>
       <c r="V43" t="n">
-        <v>1461.352559734235</v>
+        <v>3981.438319490048</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.500155906748</v>
+        <v>3706.585915662561</v>
       </c>
       <c r="X43" t="n">
-        <v>943.9362593525535</v>
+        <v>3464.022019108366</v>
       </c>
       <c r="Y43" t="n">
-        <v>717.5934910422956</v>
+        <v>3237.679250798108</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1761.303581470908</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C44" t="n">
-        <v>1334.402851484208</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D44" t="n">
-        <v>911.110230669208</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E44" t="n">
-        <v>485.1332908170656</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F44" t="n">
-        <v>60.00910900646583</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G44" t="n">
-        <v>60.00910900646583</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>60.00910900646583</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>60.00910900646583</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>60.00910900646583</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>802.6218329614803</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1545.234556916495</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2287.84728087151</v>
+        <v>2876.781500254681</v>
       </c>
       <c r="O44" t="n">
-        <v>2882.899115441388</v>
+        <v>3721.926150405493</v>
       </c>
       <c r="P44" t="n">
-        <v>2882.899115441388</v>
+        <v>4430.205429563421</v>
       </c>
       <c r="Q44" t="n">
-        <v>2882.899115441388</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R44" t="n">
-        <v>3000.455450323291</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S44" t="n">
-        <v>3000.455450323291</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T44" t="n">
-        <v>3000.455450323291</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U44" t="n">
-        <v>3000.455450323291</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V44" t="n">
-        <v>3000.455450323291</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W44" t="n">
-        <v>2998.2092146398</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X44" t="n">
-        <v>2586.489215807547</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y44" t="n">
-        <v>2181.151945762438</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1758.891310774237</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1641.385407291742</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1537.545448807027</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>1432.843515079964</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>1339.197684762868</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1245.143912980472</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>1191.767819742782</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1515.230002413262</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>2257.842726368277</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3000.455450323291</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>2919.131202884546</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>2777.251267182224</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2592.483071101861</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2387.509932241127</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2190.988555074344</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2027.511208841007</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>1887.8183201943</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1143.190231530703</v>
+        <v>371.1946237414811</v>
       </c>
       <c r="C46" t="n">
-        <v>971.2176684096187</v>
+        <v>199.2220606203971</v>
       </c>
       <c r="D46" t="n">
-        <v>807.9008955363894</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E46" t="n">
-        <v>641.6926896892429</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>469.8309154638034</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>303.5739457580355</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>159.7776772661899</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>60.00910900646583</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5004372306238</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>344.028038436461</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>698.7173597308818</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1089.903154701133</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.394665577168</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1822.822794256932</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.422006178832</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2240.422136419594</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S46" t="n">
-        <v>2240.422136419594</v>
+        <v>2110.354924811254</v>
       </c>
       <c r="T46" t="n">
-        <v>2240.422136419594</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>2240.422136419594</v>
+        <v>1586.831128537458</v>
       </c>
       <c r="V46" t="n">
-        <v>2077.115268934708</v>
+        <v>1305.119661145487</v>
       </c>
       <c r="W46" t="n">
-        <v>1802.262865107221</v>
+        <v>1030.267257318</v>
       </c>
       <c r="X46" t="n">
-        <v>1559.698968553026</v>
+        <v>787.7033607638047</v>
       </c>
       <c r="Y46" t="n">
-        <v>1333.356200242768</v>
+        <v>561.3605924535467</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>90.30334755109108</v>
+        <v>462.4589018454971</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464871</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>547.9365584046774</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N6" t="n">
-        <v>172.0949298956461</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646222</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>787.5451254802546</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
-        <v>787.3934854152689</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>787.5048219368468</v>
+        <v>181.6704383876111</v>
       </c>
       <c r="P8" t="n">
-        <v>272.3717009546589</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740232</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N9" t="n">
-        <v>418.2054371258494</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>389.3047125472194</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>788.4259050134457</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>787.3934854152689</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>362.0113689024149</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>771.4568907943644</v>
+        <v>949.8342934347921</v>
       </c>
       <c r="O12" t="n">
-        <v>356.7395063718433</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>788.4259050134457</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>787.3934854152689</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.40526635323473</v>
+        <v>106.0949474728503</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>34.07519095097335</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335785</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>773.285752303045</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N18" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>921.6378271075471</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9954,19 +9956,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>355.138624957478</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>717.3655137896245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,7 +10199,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>475.2939470053066</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>221.0580860608543</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10901,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>392.5212682508542</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -10923,7 +10925,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>231.8484603363926</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>787.5048219368468</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>473.4530921997185</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>74.68680291503971</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>773.2106430931508</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>771.4568907943644</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>788.4259050134457</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>787.5451254802546</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>787.3934854152689</v>
+        <v>814.0147147172939</v>
       </c>
       <c r="O44" t="n">
-        <v>638.4534185175178</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>349.8262579572577</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>771.4568907943644</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
-        <v>773.285752303045</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296744</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>157.29943346445</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>107.9720312369311</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>72.6543440690977</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.31806783256489</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.13019988286445</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>160.2240614002184</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>59.64236734312237</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24178,7 +24180,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>114.1895583998065</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>105.4306610544407</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>112.5072467022318</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0452929559784</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25087,7 +25089,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>59.69064356315806</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>153.473969538659</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.32812537571783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>50.28590503703263</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>107.9720312369309</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9622521858671</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>113.1225156854229</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>107.9720312369309</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>390.2036628760002</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>63.52994056050414</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>691438.9696558267</v>
+        <v>683800.2509958856</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>489341.8879561299</v>
+        <v>679263.8445928149</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>489341.8879561297</v>
+        <v>679263.8445928147</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>689814.0104411123</v>
+        <v>689814.0104411124</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689814.0104411123</v>
+        <v>689814.0104411124</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689814.0104411123</v>
+        <v>689814.0104411124</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>489341.8879561297</v>
+        <v>679263.8445928148</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>489341.8879561299</v>
+        <v>679263.8445928148</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>378587.7342072561</v>
+      </c>
+      <c r="C2" t="n">
         <v>378587.734207256</v>
-      </c>
-      <c r="C2" t="n">
-        <v>378587.7342072561</v>
       </c>
       <c r="D2" t="n">
         <v>378587.7342072562</v>
       </c>
       <c r="E2" t="n">
-        <v>259166.7313847078</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="F2" t="n">
-        <v>259166.7313847077</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="H2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="K2" t="n">
         <v>365319.7620393407</v>
-      </c>
-      <c r="K2" t="n">
-        <v>365319.7620393406</v>
       </c>
       <c r="L2" t="n">
         <v>365319.7620393407</v>
@@ -26347,13 +26349,13 @@
         <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>259166.731384708</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="P2" t="n">
-        <v>259166.7313847078</v>
+        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60226.823545384</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>144900.5320224917</v>
+        <v>7625.622083481291</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>49070.81414520418</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>156166.1166291888</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>51302.15271773421</v>
+        <v>71271.33883915342</v>
       </c>
       <c r="F4" t="n">
-        <v>51302.15271773421</v>
+        <v>71271.33883915342</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="N4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>51302.15271773421</v>
+        <v>71271.33883915342</v>
       </c>
       <c r="P4" t="n">
-        <v>51302.15271773421</v>
+        <v>71271.33883915342</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>79234.52284491403</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="F5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="P5" t="n">
-        <v>45606.92284491402</v>
+        <v>76058.47810803249</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57884.31576080844</v>
+        <v>-57884.31576080828</v>
       </c>
       <c r="C6" t="n">
-        <v>128520.4176539289</v>
+        <v>128520.4176539288</v>
       </c>
       <c r="D6" t="n">
-        <v>82960.27118776934</v>
+        <v>128520.417653929</v>
       </c>
       <c r="E6" t="n">
-        <v>162257.6558220595</v>
+        <v>4971.184579394932</v>
       </c>
       <c r="F6" t="n">
-        <v>162257.6558220595</v>
+        <v>212403.472195956</v>
       </c>
       <c r="G6" t="n">
-        <v>70288.54057855562</v>
+        <v>207563.4505175663</v>
       </c>
       <c r="H6" t="n">
-        <v>215189.0726010474</v>
+        <v>215189.0726010475</v>
       </c>
       <c r="I6" t="n">
         <v>215189.0726010473</v>
       </c>
       <c r="J6" t="n">
-        <v>69655.40266623076</v>
+        <v>69655.40266623101</v>
       </c>
       <c r="K6" t="n">
-        <v>215189.0726010472</v>
+        <v>215189.0726010474</v>
       </c>
       <c r="L6" t="n">
-        <v>166118.2584558431</v>
+        <v>215189.0726010474</v>
       </c>
       <c r="M6" t="n">
+        <v>42058.5813954076</v>
+      </c>
+      <c r="N6" t="n">
         <v>215189.0726010473</v>
       </c>
-      <c r="N6" t="n">
-        <v>215189.0726010475</v>
-      </c>
       <c r="O6" t="n">
-        <v>162257.6558220597</v>
+        <v>212403.4721959559</v>
       </c>
       <c r="P6" t="n">
-        <v>162257.6558220595</v>
+        <v>212403.4721959562</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1138625808228</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1138625808228</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>528.670054992034</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652286</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>193.8860494652287</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>528.670054992034</v>
+        <v>27.82210658548001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.0601520784151</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27436,10 +27438,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.9673024934258</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.57491028691466</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.80629979481421</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>350.5048792244489</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>109.2060354370386</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402031</v>
+        <v>110.0981677402026</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1704573377101042</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>246.2706949719984</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.429616271214126e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30393,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.757261086117069e-12</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486534</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>67.90411371775774</v>
+        <v>440.0596680121637</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937751</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>73.06155854104186</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>510.5455990486533</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N6" t="n">
-        <v>150.7519016821045</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>158.2737632597935</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>750.1138625808228</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>750.1138625808228</v>
+        <v>144.279479031587</v>
       </c>
       <c r="P8" t="n">
-        <v>234.7963391444276</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N9" t="n">
-        <v>396.8624089123077</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>353.5401117524101</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>750.1138625808228</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>750.1138625808228</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>325.8866942978169</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>750.1138625808228</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="O12" t="n">
-        <v>333.5676166496211</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>750.1138625808228</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>750.1138625808228</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.372616458438257</v>
+        <v>71.06229757805384</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.56010423674379</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>750.1138625808228</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>898.4659373853249</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>332.04184444515</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>679.0534713570016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.1971664929786</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>191.6381265752677</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.23994392538584</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>369.349378528632</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>202.4285008508061</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>750.1138625808228</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>437.3284175951204</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>52.28756908170637</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>750.1138625808228</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>750.1138625808228</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>750.1138625808228</v>
+        <v>776.7350918828479</v>
       </c>
       <c r="O44" t="n">
-        <v>601.0624591614937</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>326.7294774449297</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>750.1138625808228</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
-        <v>750.1138625808228</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1105828.661673613</v>
+        <v>1105110.671558754</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602538</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760725</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7928221.922966264</v>
+        <v>7928221.922966262</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>404.2971794711503</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>14.94721823158723</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>57.38291290721468</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140.788100213896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -870,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -898,16 +898,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>346.17149958996</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>298.3967634068916</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D7" t="n">
-        <v>51.58543740429438</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.4794233109046</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>24.60213788908017</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.89949249262355</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686371</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>110.7442840088821</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>218.7757544134946</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>197.1924733125103</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>10.02877608965472</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>6.750738971137614</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446589</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29.8510591046953</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>311.0876633699187</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3900,10 +3900,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488545689</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>292.3236405495149</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>51.69511841098192</v>
       </c>
       <c r="D46" t="n">
-        <v>98.15366458399285</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.947823099961</v>
+        <v>920.4145973156844</v>
       </c>
       <c r="C2" t="n">
-        <v>950.0470931132616</v>
+        <v>897.5542713693886</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386659</v>
+        <v>878.3020545947929</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505811</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819457</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819457</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2209.81305222845</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.81305222845</v>
+        <v>1349.239422403769</v>
       </c>
       <c r="X2" t="n">
-        <v>1798.093053396197</v>
+        <v>1341.55982761192</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.755783351087</v>
+        <v>936.2225575668105</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>1123.5801824935</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>1674.245717477938</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>1674.245717477938</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>1674.245717477938</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1674.245717477938</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462376</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462376</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.628105764983</v>
+        <v>955.8175733480448</v>
       </c>
       <c r="C4" t="n">
-        <v>621.655542643899</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D4" t="n">
-        <v>458.3387697706697</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E4" t="n">
-        <v>458.3387697706697</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F4" t="n">
-        <v>286.4769955452301</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668684</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1727.553143168989</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1727.553143168989</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>1452.700739341502</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="X4" t="n">
-        <v>1210.136842787307</v>
+        <v>1240.122879948419</v>
       </c>
       <c r="Y4" t="n">
-        <v>983.7940744770488</v>
+        <v>1013.780111638161</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>568.8670150191533</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728575</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>667.494702989317</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>667.494702989317</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>667.494702989317</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958193</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102811</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="W5" t="n">
-        <v>887.3827134031583</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X5" t="n">
-        <v>585.971841274985</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y5" t="n">
-        <v>584.6749752702793</v>
+        <v>1761.899316134962</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336855</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989117</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782771</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4731,7 +4731,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4764,13 +4764,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754302</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212353</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109774</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.9297397222204</v>
+        <v>1699.368187588183</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0694137759246</v>
+        <v>1272.467457601484</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132892</v>
+        <v>849.1748367864839</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959053</v>
+        <v>423.1978969343414</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939483</v>
+        <v>402.1141191641457</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>1366.663193762113</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X8" t="n">
-        <v>954.9431949298601</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y8" t="n">
-        <v>549.6059248847504</v>
+        <v>1715.176147839309</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764432</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608812</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4941,25 +4941,25 @@
         <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M11" t="n">
-        <v>2033.988093917325</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N11" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3855.383802554838</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4563.663081712765</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.365256022244</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4136.875841148494</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5132,13 +5132,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>989.5582228904617</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1705.75593992896</v>
       </c>
       <c r="Q12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>197.4953338758221</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>197.4953338758221</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>197.4953338758221</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292119</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292119</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
         <v>432.8421946614841</v>
@@ -5284,46 +5284,46 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2107.813759290661</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4933.495569347233</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4933.495569347233</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>848.0795203045581</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>676.106957183474</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
         <v>509.8987513363276</v>
@@ -5430,19 +5430,19 @@
         <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1842.330700979745</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.330700979745</v>
+        <v>1830.170476311557</v>
       </c>
       <c r="V16" t="n">
-        <v>1842.330700979745</v>
+        <v>1548.459008919586</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1273.606605092099</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1074.422288614816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>848.0795203045581</v>
       </c>
     </row>
     <row r="17">
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690842</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.268477064743</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5752,52 +5752,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2099.621208542961</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.436760043265</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.725292651294</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.872888823807</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.308992269612</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710918</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818556</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.72140846125</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>561.748845340166</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>398.4320724669367</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>232.2238666197902</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>232.2238666197902</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>232.2238666197902</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6788,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.555503974472</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1875.844036582501</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,43 +7183,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991802</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478503</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7102578919605</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1270.928123658803</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721396</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734696</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
         <v>1688.282378734778</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4570.892110530337</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949506</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7496,22 +7496,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>770.7587273987515</v>
       </c>
       <c r="M42" t="n">
-        <v>100.0769448789901</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="N42" t="n">
-        <v>303.0855804095302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O42" t="n">
-        <v>1192.566858421002</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.513282086043</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>2875.540718964959</v>
+        <v>266.333914584758</v>
       </c>
       <c r="D43" t="n">
-        <v>2823.434216536378</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E43" t="n">
-        <v>2823.434216536378</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F43" t="n">
-        <v>2823.434216536378</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G43" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536378</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760536</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966373</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260794</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231045</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.81977310708</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786844</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708744</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949506</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636679</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155814</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>4543.334235381714</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>4263.149786882019</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>3981.438319490048</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>3706.585915662561</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>3464.022019108366</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>3237.679250798108</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721396</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734696</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919696</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067554</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569538</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
@@ -7660,40 +7660,40 @@
         <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254681</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405493</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563421</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822647</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867279</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463691</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589941</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890288</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058036</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012926</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7736,19 +7736,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.063482855035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.1946237414811</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C46" t="n">
-        <v>199.2220606203971</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7806,13 +7806,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2110.354924811254</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1867.015577037153</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1586.831128537458</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.119661145487</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.267257318</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X46" t="n">
-        <v>787.7033607638047</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.3605924535467</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>571.0335849150667</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.86874406016992</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>462.4589018454971</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464871</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8218,10 +8218,10 @@
         <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,10 +8230,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646222</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876111</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8537,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740232</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>476.2554127892232</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>362.0113689024149</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8780,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>227.8062660976048</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8932,10 +8932,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>767.069374108112</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>106.0949474728503</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335785</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>952.685833629606</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>106.3367244377138</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O21" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10673,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>56.96224792397994</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>105.6391777587192</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,13 +10919,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.4530921997185</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>699.9714326937866</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>814.0147147172939</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11384,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.42412869296744</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.326677470263078</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.9720312369311</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.13019988286445</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>42.94578427614263</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>160.2240614002184</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>157.7953848175374</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>112.5072467022318</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>92.48232787976171</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>107.9720312369309</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>113.0089626044163</v>
       </c>
       <c r="D43" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,7 +25800,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>107.9720312369309</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="D46" t="n">
-        <v>63.52994056050414</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679263.8445928149</v>
+        <v>679263.8445928145</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679263.8445928147</v>
+        <v>679263.8445928145</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411122</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689814.0104411124</v>
+        <v>689814.0104411123</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679263.8445928148</v>
+        <v>679263.8445928146</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679263.8445928148</v>
+        <v>679263.8445928143</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
+        <v>378587.7342072559</v>
+      </c>
+      <c r="D2" t="n">
         <v>378587.734207256</v>
-      </c>
-      <c r="D2" t="n">
-        <v>378587.7342072562</v>
       </c>
       <c r="E2" t="n">
         <v>359733.2891431419</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393409</v>
       </c>
       <c r="H2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393406</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="L2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393406</v>
       </c>
       <c r="M2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="O2" t="n">
+        <v>359733.2891431419</v>
+      </c>
+      <c r="P2" t="n">
         <v>359733.2891431418</v>
-      </c>
-      <c r="P2" t="n">
-        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481291</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="C4" t="n">
         <v>182621.0655158991</v>
@@ -26426,40 +26426,40 @@
         <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>71271.33883915342</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="F4" t="n">
-        <v>71271.33883915342</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.6272498637</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>71271.33883915342</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>71271.33883915342</v>
+        <v>71271.33883915341</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57884.31576080828</v>
+        <v>-57884.31576080847</v>
       </c>
       <c r="C6" t="n">
+        <v>128520.4176539287</v>
+      </c>
+      <c r="D6" t="n">
         <v>128520.4176539288</v>
       </c>
-      <c r="D6" t="n">
-        <v>128520.417653929</v>
-      </c>
       <c r="E6" t="n">
-        <v>4971.184579394932</v>
+        <v>4898.667482994697</v>
       </c>
       <c r="F6" t="n">
-        <v>212403.472195956</v>
+        <v>212330.9550995555</v>
       </c>
       <c r="G6" t="n">
-        <v>207563.4505175663</v>
+        <v>207512.4198553817</v>
       </c>
       <c r="H6" t="n">
-        <v>215189.0726010475</v>
+        <v>215138.0419388631</v>
       </c>
       <c r="I6" t="n">
-        <v>215189.0726010473</v>
+        <v>215138.041938863</v>
       </c>
       <c r="J6" t="n">
-        <v>69655.40266623101</v>
+        <v>69604.37200404641</v>
       </c>
       <c r="K6" t="n">
-        <v>215189.0726010474</v>
+        <v>215138.0419388631</v>
       </c>
       <c r="L6" t="n">
-        <v>215189.0726010474</v>
+        <v>215138.0419388629</v>
       </c>
       <c r="M6" t="n">
-        <v>42058.5813954076</v>
+        <v>42007.55073322348</v>
       </c>
       <c r="N6" t="n">
-        <v>215189.0726010473</v>
+        <v>215138.0419388632</v>
       </c>
       <c r="O6" t="n">
-        <v>212403.4721959559</v>
+        <v>212330.9550995556</v>
       </c>
       <c r="P6" t="n">
-        <v>212403.4721959562</v>
+        <v>212330.9550995555</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717825</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658548001</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>17.41999098247067</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.9673024934258</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>130.8813961177303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>23.80629979481421</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>7.74302113505297</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>109.2060354370386</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D7" t="n">
-        <v>110.0981677402026</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -27794,7 +27794,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1704573377101042</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>375.6935338973657</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>440.0596680121637</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937751</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.06155854104186</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597935</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.279479031587</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>437.9433703566003</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>325.8866942978169</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>71.06229757805384</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>914.3737911969831</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>83.23994392538586</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O21" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>19.53098502454813</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>83.23994392538584</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>437.3284175951204</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>677.456345979557</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>205.0592278086263</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>776.7350918828479</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
